--- a/biology/Zoologie/Clogmia_albipunctata/Clogmia_albipunctata.xlsx
+++ b/biology/Zoologie/Clogmia_albipunctata/Clogmia_albipunctata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moucheron des éviers
-Clogmia albipunctata, le Moucheron des éviers, est une espèce de petits insectes diptères nématocères de la famille des Psychodidae, subcosmopolite des zones tropicales et tempérées. Il est découvert en Allemagne en 1993, puis en Belgique[2]. En 2021, il est aussi potentiellement présent dans toute la France[3]. 
-Il ressemble à un minuscule papillon de nuit et se rencontre essentiellement dans les pièces humides des habitations[4].
+Clogmia albipunctata, le Moucheron des éviers, est une espèce de petits insectes diptères nématocères de la famille des Psychodidae, subcosmopolite des zones tropicales et tempérées. Il est découvert en Allemagne en 1993, puis en Belgique. En 2021, il est aussi potentiellement présent dans toute la France. 
+Il ressemble à un minuscule papillon de nuit et se rencontre essentiellement dans les pièces humides des habitations.
 </t>
         </is>
       </c>
@@ -513,12 +525,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Clogmia albipunctata Williston, 1893[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Clogmia albipunctata Williston, 1893.
 Les termes « Moucheron des éviers », « Moucheron des égouts » sont aussi attribués à d'autres espèces du genre Clogmia ainsi qu'à des espèces de genres voisins comme Psychoda.  
-Synonymes
-Selon la base Biolib, on retrouve parfois le nom de Clogmia albopunctata avec une orthographe erronée, ainsi que Clogmia albipunctatus[5].
 </t>
         </is>
       </c>
@@ -544,15 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clogmia albipunctata peut atteindre une longueur de 3 à 5 millimètres. Le corps et les ailes sont recouverts d'épais poils gris-brun. Les ailes sont pointues et présentent quelques taches blanches (d'où le nom latin de l'espèce). Bien qu'il s'agisse d'un diptère (une mouche), il a une apparence similaire à celle d'un petit papillon de nuit. Les antennes présentent des soies denses, chaque segment avec des verticilles séparés. 
-Bien que minuscule, cet insecte peut provoquer de nombreux dégâts, car les asticots se nourrissent de déchets organiques, pouvant ainsi contaminer l'alimentation et provoquer une myiase sur les tissus animaux ou humains[6],[7]. 
-Les larves apprécient les substrats humides. Elles deviennent adultes au bout de 10 à 15 jours[8]. Les adultes ne se nourrissent pas et passent la majeure partie de leur vie sur les murs. Ils se déplacent rarement et avec un vol faible.
-L'humidité et la chaleur sont particulièrement appréciées par ces moucherons. Ces derniers déposent leurs œufs dans les endroits humides comme les canalisations, les déchets, les plantes d'intérieur ou la nourriture. On trouve parfois leurs larves dans les canalisations de douches ou dans les joints de baignoire mal entretenus[9].
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base Biolib, on retrouve parfois le nom de Clogmia albopunctata avec une orthographe erronée, ainsi que Clogmia albipunctatus.
 </t>
         </is>
       </c>
@@ -578,13 +593,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clogmia albipunctata peut atteindre une longueur de 3 à 5 millimètres. Le corps et les ailes sont recouverts d'épais poils gris-brun. Les ailes sont pointues et présentent quelques taches blanches (d'où le nom latin de l'espèce). Bien qu'il s'agisse d'un diptère (une mouche), il a une apparence similaire à celle d'un petit papillon de nuit. Les antennes présentent des soies denses, chaque segment avec des verticilles séparés. 
+Bien que minuscule, cet insecte peut provoquer de nombreux dégâts, car les asticots se nourrissent de déchets organiques, pouvant ainsi contaminer l'alimentation et provoquer une myiase sur les tissus animaux ou humains,. 
+Les larves apprécient les substrats humides. Elles deviennent adultes au bout de 10 à 15 jours. Les adultes ne se nourrissent pas et passent la majeure partie de leur vie sur les murs. Ils se déplacent rarement et avec un vol faible.
+L'humidité et la chaleur sont particulièrement appréciées par ces moucherons. Ces derniers déposent leurs œufs dans les endroits humides comme les canalisations, les déchets, les plantes d'intérieur ou la nourriture. On trouve parfois leurs larves dans les canalisations de douches ou dans les joints de baignoire mal entretenus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clogmia_albipunctata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clogmia_albipunctata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Lutte antiparasitaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La perméthrine, réputée pour son action répulsive et insecticide, peut être utilisée pour se débarrasser des Psychodidae[10] et prévenir ou réduire l'ampleur des infestations de moucherons[6]. 
-Cependant, tuer uniquement les mouches adultes n'est généralement pas efficace ; les sources de nourriture larvaire doivent être supprimées pour empêcher davantage de mouches d'émerger[11]. Un nettoyage en profondeur des canalisations et des zones infectées, peut éliminer les larves de ces moucherons[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La perméthrine, réputée pour son action répulsive et insecticide, peut être utilisée pour se débarrasser des Psychodidae et prévenir ou réduire l'ampleur des infestations de moucherons. 
+Cependant, tuer uniquement les mouches adultes n'est généralement pas efficace ; les sources de nourriture larvaire doivent être supprimées pour empêcher davantage de mouches d'émerger. Un nettoyage en profondeur des canalisations et des zones infectées, peut éliminer les larves de ces moucherons.
 </t>
         </is>
       </c>
